--- a/BenCaoGangMu/readme/系统包的结构说明.xlsx
+++ b/BenCaoGangMu/readme/系统包的结构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9480" tabRatio="560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>包名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,15 +42,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB.cs</t>
+    <t>逻辑层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类、接口、组件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限实体类（权限树用到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessLoginLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限资源业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewActionService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限资源业务类（权限树用到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRoleService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleActionService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限业务类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,31 +182,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据访问层，保存所有数据访问层的类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewutil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存所有的界面组件类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InterFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存所有的接口</t>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问数据库的基础类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBHelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色数据访问层类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据访问层类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限资源数据访问层类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewActionDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRoleDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色数据访问层类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleActionActionDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限数据访问层类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理窗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理窗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理窗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmUser_Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色管理窗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmRole_Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限管理窗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frmModifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户密码窗体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,46 +298,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存所有的工具类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataReadHelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将 IDateReader 对象转换成为对应实体类对象（集合）的辅助类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立实体接口</t>
-  </si>
-  <si>
-    <t>IEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此类用于处理错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonUtil</t>
+    <t>ValidateUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +330,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,13 +365,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,11 +414,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="2" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,135 +717,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="D27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
+      <c r="B29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
